--- a/推荐数据raw.xlsx
+++ b/推荐数据raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fqx/Dropbox/LLS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06D2161-7F61-BA42-B433-25F7AA1BD81D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFB73C8-0466-BD44-8557-8FA26E4975AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{419EA485-F105-1C4F-9161-13D02683F790}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11100" windowHeight="15540" xr2:uid="{419EA485-F105-1C4F-9161-13D02683F790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="156">
   <si>
     <t>组别</t>
   </si>
@@ -439,6 +439,69 @@
   </si>
   <si>
     <t>陈小朵</t>
+  </si>
+  <si>
+    <t>墨染鱼摆摆</t>
+  </si>
+  <si>
+    <t>小梅妮卡</t>
+  </si>
+  <si>
+    <t>李青澜</t>
+  </si>
+  <si>
+    <t>糖水芋头</t>
+  </si>
+  <si>
+    <t>小熊壮汉</t>
+  </si>
+  <si>
+    <t>慕容素衣</t>
+  </si>
+  <si>
+    <t>王千斤</t>
+  </si>
+  <si>
+    <t>王家小林</t>
+  </si>
+  <si>
+    <t>苏羡眯</t>
+  </si>
+  <si>
+    <t>二月风和</t>
+  </si>
+  <si>
+    <t>乌鸦哥哥</t>
+  </si>
+  <si>
+    <t>阙特勤</t>
+  </si>
+  <si>
+    <t>木易桑</t>
+  </si>
+  <si>
+    <t>踏夜白泽</t>
+  </si>
+  <si>
+    <t>马鹿</t>
+  </si>
+  <si>
+    <t>六熏</t>
+  </si>
+  <si>
+    <t>阙凝</t>
+  </si>
+  <si>
+    <t>爱烤火的鱼</t>
+  </si>
+  <si>
+    <t>叶茶</t>
+  </si>
+  <si>
+    <t>端端</t>
+  </si>
+  <si>
+    <t>怪兽鱼</t>
   </si>
 </sst>
 </file>
@@ -825,11 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81808AD0-18F3-0949-B3BE-CC853818480C}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F202" sqref="F202"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F262" sqref="F262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4852,6 +4915,1206 @@
       </c>
       <c r="F201">
         <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202" s="4">
+        <v>15327</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+      <c r="D203" s="4">
+        <v>5623</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>4</v>
+      </c>
+      <c r="D204" s="4">
+        <v>5943</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>4</v>
+      </c>
+      <c r="D205" s="4">
+        <v>2763</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+      <c r="D206" s="4">
+        <v>2444</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207" s="4">
+        <v>2909</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>4</v>
+      </c>
+      <c r="D208" s="4">
+        <v>1262</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209" s="4">
+        <v>972</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>4</v>
+      </c>
+      <c r="D210" s="4">
+        <v>2066</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211" s="4">
+        <v>1160</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>4</v>
+      </c>
+      <c r="D212" s="4">
+        <v>153</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213" s="4">
+        <v>89</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+      <c r="D214" s="4">
+        <v>75</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215" s="4">
+        <v>49</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+      <c r="D216" s="4">
+        <v>49</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B217" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217">
+        <v>4</v>
+      </c>
+      <c r="D217" s="4">
+        <v>9743</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>27</v>
+      </c>
+      <c r="B218" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218">
+        <v>4</v>
+      </c>
+      <c r="D218" s="4">
+        <v>4351</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" t="s">
+        <v>25</v>
+      </c>
+      <c r="C219">
+        <v>4</v>
+      </c>
+      <c r="D219" s="4">
+        <v>2357</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220">
+        <v>4</v>
+      </c>
+      <c r="D220" s="4">
+        <v>1452</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B221" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+      <c r="D221" s="4">
+        <v>2419</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222">
+        <v>4</v>
+      </c>
+      <c r="D222" s="4">
+        <v>1332</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223" s="4">
+        <v>2217</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>96</v>
+      </c>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+      <c r="D224" s="4">
+        <v>1135</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B225" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225" s="4">
+        <v>1133</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B226" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226" s="4">
+        <v>1094</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B227" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227" s="4">
+        <v>141</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228">
+        <v>4</v>
+      </c>
+      <c r="D228" s="4">
+        <v>12</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B229" t="s">
+        <v>25</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+      <c r="D229" s="4">
+        <v>6</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B230" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+      <c r="D230" s="4">
+        <v>6</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B231" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+      <c r="D231" s="4">
+        <v>4</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B232" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232">
+        <v>4</v>
+      </c>
+      <c r="D232" s="4">
+        <v>1261</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>49</v>
+      </c>
+      <c r="B233" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233">
+        <v>4</v>
+      </c>
+      <c r="D233" s="4">
+        <v>1697</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B234" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234">
+        <v>4</v>
+      </c>
+      <c r="D234" s="4">
+        <v>1643</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235">
+        <v>4</v>
+      </c>
+      <c r="D235" s="2">
+        <v>1457</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>53</v>
+      </c>
+      <c r="B236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C236">
+        <v>4</v>
+      </c>
+      <c r="D236" s="2">
+        <v>583</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B237" t="s">
+        <v>47</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237" s="2">
+        <v>1068</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B238" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238">
+        <v>4</v>
+      </c>
+      <c r="D238" s="2">
+        <v>1432</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B239" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239">
+        <v>4</v>
+      </c>
+      <c r="D239" s="2">
+        <v>982</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B240" t="s">
+        <v>47</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+      <c r="D240" s="2">
+        <v>1044</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B241" t="s">
+        <v>47</v>
+      </c>
+      <c r="C241">
+        <v>4</v>
+      </c>
+      <c r="D241" s="2">
+        <v>650</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>145</v>
+      </c>
+      <c r="B242" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242">
+        <v>4</v>
+      </c>
+      <c r="D242" s="2">
+        <v>265</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>146</v>
+      </c>
+      <c r="B243" t="s">
+        <v>47</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+      <c r="D243" s="2">
+        <v>69</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B244" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244">
+        <v>4</v>
+      </c>
+      <c r="D244" s="2">
+        <v>65</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B245" t="s">
+        <v>47</v>
+      </c>
+      <c r="C245">
+        <v>4</v>
+      </c>
+      <c r="D245" s="2">
+        <v>33</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>149</v>
+      </c>
+      <c r="B246" t="s">
+        <v>47</v>
+      </c>
+      <c r="C246">
+        <v>4</v>
+      </c>
+      <c r="D246" s="2">
+        <v>3</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>70</v>
+      </c>
+      <c r="B247" t="s">
+        <v>69</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247" s="2">
+        <v>949</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>71</v>
+      </c>
+      <c r="B248" t="s">
+        <v>69</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248" s="4">
+        <v>1872</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B249" t="s">
+        <v>69</v>
+      </c>
+      <c r="C249">
+        <v>4</v>
+      </c>
+      <c r="D249" s="4">
+        <v>767</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>74</v>
+      </c>
+      <c r="B250" t="s">
+        <v>69</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+      <c r="D250" s="4">
+        <v>928</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B251" t="s">
+        <v>69</v>
+      </c>
+      <c r="C251">
+        <v>4</v>
+      </c>
+      <c r="D251" s="4">
+        <v>1358</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>76</v>
+      </c>
+      <c r="B252" t="s">
+        <v>69</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+      <c r="D252" s="4">
+        <v>580</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B253" t="s">
+        <v>69</v>
+      </c>
+      <c r="C253">
+        <v>4</v>
+      </c>
+      <c r="D253" s="2">
+        <v>575</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B254" t="s">
+        <v>69</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+      <c r="D254" s="4">
+        <v>693</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B255" t="s">
+        <v>69</v>
+      </c>
+      <c r="C255">
+        <v>4</v>
+      </c>
+      <c r="D255" s="4">
+        <v>701</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B256" t="s">
+        <v>69</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+      <c r="D256" s="2">
+        <v>617</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>151</v>
+      </c>
+      <c r="B257" t="s">
+        <v>69</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+      <c r="D257" s="2">
+        <v>235</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B258" t="s">
+        <v>69</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258" s="2">
+        <v>33</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>153</v>
+      </c>
+      <c r="B259" t="s">
+        <v>69</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="D259" s="2">
+        <v>3</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>154</v>
+      </c>
+      <c r="B260" t="s">
+        <v>69</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+      <c r="D260" s="2">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>155</v>
+      </c>
+      <c r="B261" t="s">
+        <v>69</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261" s="2">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4966,6 +6229,39 @@
     <hyperlink ref="A195" r:id="rId108" display="https://read.douban.com/author/63757795/" xr:uid="{91C4576B-209F-8C46-B9D2-2A0863F5DF50}"/>
     <hyperlink ref="A180" r:id="rId109" display="https://read.douban.com/author/63780611/?dcs=rally-3-watchlist&amp;dcm=watchlist-works-list" xr:uid="{46B8B55B-34E9-9449-8F5C-8A9F8B6F0176}"/>
     <hyperlink ref="A196" r:id="rId110" display="https://read.douban.com/author/63776609/?dcs=rally-3-watchlist&amp;dcm=watchlist-works-list" xr:uid="{1A1917F2-8FD4-2A4A-B7A4-DD4322F92B77}"/>
+    <hyperlink ref="A202" r:id="rId111" display="https://read.douban.com/author/63816229/" xr:uid="{DF414D66-18BE-CD41-85AB-4CF8419BA4C5}"/>
+    <hyperlink ref="A204" r:id="rId112" display="https://read.douban.com/author/63802257/" xr:uid="{81F1FC08-590F-3548-8C63-B76C6AD458A4}"/>
+    <hyperlink ref="A207" r:id="rId113" display="https://read.douban.com/author/63711392/" xr:uid="{C511D5B8-D4B5-FA49-B9B7-583E2FE7A72D}"/>
+    <hyperlink ref="A208" r:id="rId114" display="https://read.douban.com/author/63819103/" xr:uid="{FEC12941-A642-8D4D-B1AC-8FDD0CB497B3}"/>
+    <hyperlink ref="A210" r:id="rId115" display="https://read.douban.com/author/63820321/" xr:uid="{3C2488EC-F1D6-564E-9B7D-5E0A87B7BCF9}"/>
+    <hyperlink ref="A211" r:id="rId116" display="https://read.douban.com/author/63819355/" xr:uid="{9D04C3A4-D69F-4B45-BD5F-67ACE6E8271C}"/>
+    <hyperlink ref="A212" r:id="rId117" display="https://read.douban.com/author/63794516/" xr:uid="{C9940211-4A9F-0841-BDC1-BF02487FCFBA}"/>
+    <hyperlink ref="A215" r:id="rId118" display="https://read.douban.com/author/63893417/" xr:uid="{71C5AC3D-726F-5D42-942F-6683E3830E89}"/>
+    <hyperlink ref="A217" r:id="rId119" display="https://read.douban.com/author/63700128/" xr:uid="{BE0721A1-11B4-A34E-A9D1-98E2D2DC5AB2}"/>
+    <hyperlink ref="A221" r:id="rId120" display="https://read.douban.com/author/63893734/" xr:uid="{AD3EA367-81E7-0F42-98B0-9AB2BE3891BC}"/>
+    <hyperlink ref="A222" r:id="rId121" display="https://read.douban.com/author/63777930/" xr:uid="{439F2322-2EF5-6748-B635-697076A10909}"/>
+    <hyperlink ref="A225" r:id="rId122" display="https://read.douban.com/author/63737411/" xr:uid="{9B36A7AF-3260-CD46-B0AC-CB720A9AD2DA}"/>
+    <hyperlink ref="A220" r:id="rId123" display="https://read.douban.com/author/63688363/" xr:uid="{A2C60E20-93AD-3C40-A553-8525FE139E92}"/>
+    <hyperlink ref="A223" r:id="rId124" display="https://read.douban.com/author/63692125/" xr:uid="{C282C41C-B1F3-4F4F-9B81-193552D8759C}"/>
+    <hyperlink ref="A227" r:id="rId125" display="https://read.douban.com/author/63689396/" xr:uid="{E36B6092-0E54-A749-BA7E-2F55C13A8581}"/>
+    <hyperlink ref="A229" r:id="rId126" display="https://read.douban.com/author/63820392/" xr:uid="{6EDC91F3-0ABA-A24D-8B4F-96FC4DF4DBC5}"/>
+    <hyperlink ref="A232" r:id="rId127" display="https://read.douban.com/author/63774913/" xr:uid="{D13B4821-3632-D949-8932-14F9052E4A19}"/>
+    <hyperlink ref="A234" r:id="rId128" display="https://read.douban.com/author/63812322/" xr:uid="{E8EBCA00-ACDD-6744-9F7A-6515B74DDB9C}"/>
+    <hyperlink ref="A235" r:id="rId129" display="https://read.douban.com/author/63742159/" xr:uid="{D09FA78F-0C96-7442-BCFA-CF3D2F19BBB4}"/>
+    <hyperlink ref="A237" r:id="rId130" display="https://read.douban.com/author/63729871/" xr:uid="{BB423076-DBCB-0C42-84FE-4498FA69B051}"/>
+    <hyperlink ref="A238" r:id="rId131" display="https://read.douban.com/author/63810388/" xr:uid="{A7BA0352-3037-F94B-BBD5-4AF8B14C7636}"/>
+    <hyperlink ref="A239" r:id="rId132" display="https://read.douban.com/author/63761650/" xr:uid="{84A3C89E-EA07-F14E-B50F-154EB18C8A04}"/>
+    <hyperlink ref="A241" r:id="rId133" display="https://read.douban.com/author/63745421/" xr:uid="{D6EBCB7C-F330-9A46-9DEF-0044C550B1C0}"/>
+    <hyperlink ref="A249" r:id="rId134" display="https://read.douban.com/author/63694531/" xr:uid="{01C920D0-60A1-5640-8B63-EA1C8D5B7952}"/>
+    <hyperlink ref="A251" r:id="rId135" display="https://read.douban.com/author/63699000/" xr:uid="{27254CDA-81B9-AA4B-98EB-DD1558DB03C2}"/>
+    <hyperlink ref="A254" r:id="rId136" display="https://read.douban.com/author/63734380/" xr:uid="{949F6B13-9DB6-664E-98B7-922752840FB2}"/>
+    <hyperlink ref="A255" r:id="rId137" display="https://read.douban.com/author/63757795/" xr:uid="{77D500A1-F896-5544-8D5A-47ACD9DB1A91}"/>
+    <hyperlink ref="A240" r:id="rId138" display="https://read.douban.com/author/63780611/?dcs=rally-3-watchlist&amp;dcm=watchlist-works-list" xr:uid="{C1C06AC1-9A0C-4E4B-8110-68F4E97EF254}"/>
+    <hyperlink ref="A256" r:id="rId139" display="https://read.douban.com/author/63776609/?dcs=rally-3-watchlist&amp;dcm=watchlist-works-list" xr:uid="{665AB6E8-DA20-464A-909A-BF0F716529C4}"/>
+    <hyperlink ref="A244" r:id="rId140" display="https://read.douban.com/author/63695069/" xr:uid="{D5D97BF9-EE0C-2B40-B451-4CEE73C2D93B}"/>
+    <hyperlink ref="A245" r:id="rId141" display="https://read.douban.com/author/63874603/" xr:uid="{76B3D7D6-B88B-FF4C-A4B9-795FF2198E47}"/>
+    <hyperlink ref="A253" r:id="rId142" display="https://read.douban.com/author/63820773/" xr:uid="{3CE2A457-2822-734E-B076-D689E9177C87}"/>
+    <hyperlink ref="A258" r:id="rId143" display="https://read.douban.com/author/63776498/" xr:uid="{36378A87-1492-DD4D-9F16-10A1B7E3EC5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
